--- a/project_back/Import template.xlsx
+++ b/project_back/Import template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yjq\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B582BF02-E7D7-439F-AC17-E61346A8BC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D91F7E-0C02-426E-A0D7-358BE865D417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2520" yWindow="5880" windowWidth="28800" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>题干</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正确选项（请填入ABCD）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,6 +80,48 @@
   </si>
   <si>
     <t>小学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确答案（单选多选请填入ABCD,填空直接填入答案，不同方式用;隔开如:BEIJNG;beijng）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试2题</t>
+  </si>
+  <si>
+    <t>多选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试3题</t>
+  </si>
+  <si>
+    <t>题型(单选/多选/填空)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEIJING;beijing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案为ABC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案为北京</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,20 +447,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="81.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,19 +479,22 @@
         <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -468,20 +511,76 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
-        <v>14</v>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>